--- a/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4814</v>
+        <v>4662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002523371287959411</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01509722928212116</v>
+        <v>0.01462034479535609</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>3876</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1548</v>
+        <v>1479</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8686</v>
+        <v>8517</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01226262518002142</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004898827959706392</v>
+        <v>0.004678746948459402</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02748250142524782</v>
+        <v>0.0269477916216113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>4680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2051</v>
+        <v>1729</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9771</v>
+        <v>9844</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.007371640504748386</v>
+        <v>0.007371640504748388</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003230752548776539</v>
+        <v>0.002723058005529841</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01538917286584858</v>
+        <v>0.01550430276178527</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>11587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6332</v>
+        <v>6167</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19883</v>
+        <v>19994</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03634153780929542</v>
+        <v>0.03634153780929543</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01985986840508755</v>
+        <v>0.01934013443551029</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06235885771642338</v>
+        <v>0.06270745508936024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -833,19 +833,19 @@
         <v>20246</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14882</v>
+        <v>13955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27496</v>
+        <v>26892</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.0640575776964971</v>
+        <v>0.06405757769649709</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04708602708522152</v>
+        <v>0.04415136257873108</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08699495813120921</v>
+        <v>0.08508444264230487</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -854,19 +854,19 @@
         <v>31833</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24109</v>
+        <v>24140</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42080</v>
+        <v>41847</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05013877777096616</v>
+        <v>0.05013877777096617</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03797261683044294</v>
+        <v>0.03802138860257961</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06627747666969343</v>
+        <v>0.06590979905933529</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>34825</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25481</v>
+        <v>25605</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45807</v>
+        <v>46952</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1092222599979529</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07991743331689119</v>
+        <v>0.08030652440481471</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1436640937917266</v>
+        <v>0.1472549440062518</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>91</v>
@@ -904,19 +904,19 @@
         <v>52089</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42464</v>
+        <v>41390</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65337</v>
+        <v>63937</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1648052815552833</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1343545123266245</v>
+        <v>0.1309553182354984</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2067229116059128</v>
+        <v>0.2022940815652768</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>131</v>
@@ -925,19 +925,19 @@
         <v>86913</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>73416</v>
+        <v>71741</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>104078</v>
+        <v>104115</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1368918798044726</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1156325714489345</v>
+        <v>0.1129948751088169</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1639261939019184</v>
+        <v>0.163984936049907</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>271628</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>258519</v>
+        <v>257529</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>282229</v>
+        <v>282982</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8519128309047924</v>
+        <v>0.8519128309047923</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8107985573310883</v>
+        <v>0.8076925542606052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8851595085516735</v>
+        <v>0.8875217141586532</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>403</v>
@@ -975,19 +975,19 @@
         <v>239851</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>226880</v>
+        <v>227600</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>252202</v>
+        <v>252507</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7588745155681982</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7178370375267857</v>
+        <v>0.7201131225144671</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7979531606798241</v>
+        <v>0.7989186401148602</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>681</v>
@@ -996,19 +996,19 @@
         <v>511479</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>493296</v>
+        <v>493666</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>527678</v>
+        <v>529644</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8055977019198129</v>
+        <v>0.8055977019198128</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7769589211911702</v>
+        <v>0.7775415334474242</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8311125108585261</v>
+        <v>0.8342079990855622</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>15218</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8329</v>
+        <v>8070</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26576</v>
+        <v>25611</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02867880917167827</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0156964005097749</v>
+        <v>0.01520843058998058</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05008304551553963</v>
+        <v>0.04826368272107101</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>48</v>
@@ -1121,19 +1121,19 @@
         <v>32966</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23872</v>
+        <v>24481</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>43306</v>
+        <v>44465</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06040473422826342</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04374104477657088</v>
+        <v>0.04485713346389122</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07935083351174389</v>
+        <v>0.08147488435671206</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>60</v>
@@ -1142,19 +1142,19 @@
         <v>48184</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>35934</v>
+        <v>35841</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>62322</v>
+        <v>62021</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04476440333020942</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03338313917583855</v>
+        <v>0.03329713274026655</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.057898589391541</v>
+        <v>0.05761864937442586</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>22710</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13350</v>
+        <v>13750</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33756</v>
+        <v>34351</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04279652472326316</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02515731868714672</v>
+        <v>0.02591266720548225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06361370929436939</v>
+        <v>0.06473374678658879</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -1192,19 +1192,19 @@
         <v>40100</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29632</v>
+        <v>30163</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51186</v>
+        <v>52126</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07347709873095198</v>
+        <v>0.073477098730952</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05429615241264751</v>
+        <v>0.05526903132600965</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09378985317049482</v>
+        <v>0.09551124422355962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1213,19 +1213,19 @@
         <v>62810</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50811</v>
+        <v>49946</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80269</v>
+        <v>78196</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05835210777271711</v>
+        <v>0.05835210777271712</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04720458551590882</v>
+        <v>0.04640131182535811</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07457132567211794</v>
+        <v>0.07264602185115221</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>88338</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69459</v>
+        <v>68967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110228</v>
+        <v>112694</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1664723153395317</v>
+        <v>0.1664723153395316</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1308945861723309</v>
+        <v>0.1299684369013765</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2077237057079851</v>
+        <v>0.2123710963161628</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>164</v>
@@ -1263,19 +1263,19 @@
         <v>111535</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>96553</v>
+        <v>96665</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>129158</v>
+        <v>129156</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2043682766460047</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1769172548353939</v>
+        <v>0.1771220708177562</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2366601608824929</v>
+        <v>0.2366557571149096</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>233</v>
@@ -1284,19 +1284,19 @@
         <v>199873</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>176204</v>
+        <v>175513</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>225943</v>
+        <v>228156</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1856862248704942</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1636970935485718</v>
+        <v>0.1630552461289189</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2099059811519725</v>
+        <v>0.2119622767622091</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>404381</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>379791</v>
+        <v>380488</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>426420</v>
+        <v>427231</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7620523507655268</v>
+        <v>0.7620523507655269</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7157138189560396</v>
+        <v>0.7170260208730864</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8035845110075939</v>
+        <v>0.8051131107124359</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>449</v>
@@ -1334,19 +1334,19 @@
         <v>361153</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>340708</v>
+        <v>340044</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>379597</v>
+        <v>379293</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6617498903947798</v>
+        <v>0.6617498903947799</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6242882594679758</v>
+        <v>0.6230714733084295</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6955466020554059</v>
+        <v>0.694989135253459</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>731</v>
@@ -1355,19 +1355,19 @@
         <v>765533</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>737984</v>
+        <v>737048</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>797605</v>
+        <v>796844</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7111972640265792</v>
+        <v>0.7111972640265793</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6856035379875031</v>
+        <v>0.6847340084501672</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7409923701502408</v>
+        <v>0.7402852870667995</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>27908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20002</v>
+        <v>19357</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39597</v>
+        <v>40797</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08887083087590554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06369366791658007</v>
+        <v>0.06164156090036205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1260957128833975</v>
+        <v>0.129916823216719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -1480,19 +1480,19 @@
         <v>43369</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34470</v>
+        <v>34705</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54279</v>
+        <v>54302</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1216932063859338</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09672234108748072</v>
+        <v>0.09738060497414454</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1523071917949781</v>
+        <v>0.1523714623898404</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>102</v>
@@ -1501,19 +1501,19 @@
         <v>71277</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>58615</v>
+        <v>57861</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86221</v>
+        <v>84950</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1063188229796327</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08743206006311367</v>
+        <v>0.086306305799452</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1286100898044183</v>
+        <v>0.12671366334339</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>25303</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16983</v>
+        <v>17309</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>35503</v>
+        <v>35918</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08057714029716796</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0540820096575353</v>
+        <v>0.05512078117331928</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.113056092182073</v>
+        <v>0.1143790437319372</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>48</v>
@@ -1551,19 +1551,19 @@
         <v>28626</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20875</v>
+        <v>21922</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>37198</v>
+        <v>37913</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0803239489365974</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0585749201167787</v>
+        <v>0.0615140482006004</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1043783538554399</v>
+        <v>0.1063837750548744</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>77</v>
@@ -1572,19 +1572,19 @@
         <v>53929</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>41753</v>
+        <v>44171</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>67222</v>
+        <v>66754</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08044254672216553</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06227943236299344</v>
+        <v>0.06588682523254927</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1002694324359205</v>
+        <v>0.09957257618619721</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>18228</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11797</v>
+        <v>11787</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25973</v>
+        <v>25840</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05804534456057645</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03756728079089025</v>
+        <v>0.03753526011076481</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08270941045394171</v>
+        <v>0.08228537995017507</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -1622,19 +1622,19 @@
         <v>39321</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29606</v>
+        <v>30977</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49227</v>
+        <v>50125</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1103337932780443</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08307414550427999</v>
+        <v>0.08692142131246718</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.138129400858312</v>
+        <v>0.1406501340085916</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -1643,19 +1643,19 @@
         <v>57549</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46414</v>
+        <v>46717</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70081</v>
+        <v>69397</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08584127420192063</v>
+        <v>0.08584127420192061</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06923185332379704</v>
+        <v>0.06968446426365082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1045340536483814</v>
+        <v>0.1035143150741542</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>242588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>228664</v>
+        <v>227933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>256882</v>
+        <v>255867</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7725066842663499</v>
+        <v>0.7725066842663501</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7281676198199325</v>
+        <v>0.7258397249758299</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8180245732387917</v>
+        <v>0.8147924489757828</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>356</v>
@@ -1693,19 +1693,19 @@
         <v>245065</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>230341</v>
+        <v>229872</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>259664</v>
+        <v>258376</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6876490513994244</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6463322414520001</v>
+        <v>0.6450188433525792</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7286144045976156</v>
+        <v>0.7249997446490615</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>628</v>
@@ -1714,19 +1714,19 @@
         <v>487654</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>466853</v>
+        <v>467060</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>505912</v>
+        <v>506143</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.727397356096281</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6963711220597379</v>
+        <v>0.696678842889023</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7546319008167338</v>
+        <v>0.754976334403921</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>30808</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18869</v>
+        <v>19956</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47218</v>
+        <v>48171</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08256196423457889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05056877303267059</v>
+        <v>0.05348113493127434</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1265403119086862</v>
+        <v>0.1290942841772713</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>87</v>
@@ -1839,19 +1839,19 @@
         <v>60597</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48774</v>
+        <v>48385</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76376</v>
+        <v>77359</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1437492079097079</v>
+        <v>0.1437492079097078</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1157035483325928</v>
+        <v>0.1147795162828722</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1811805356858706</v>
+        <v>0.1835136044522834</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -1860,19 +1860,19 @@
         <v>91404</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73543</v>
+        <v>73132</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115587</v>
+        <v>113923</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1150189028566483</v>
+        <v>0.1150189028566482</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09254321219207201</v>
+        <v>0.09202576059084006</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.145449506841996</v>
+        <v>0.1433552056818235</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>33728</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22419</v>
+        <v>21991</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53273</v>
+        <v>53235</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09038735588916123</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06007989437671424</v>
+        <v>0.05893403648743431</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1427688854086127</v>
+        <v>0.1426667242757213</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>73</v>
@@ -1910,19 +1910,19 @@
         <v>48327</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38302</v>
+        <v>37795</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61086</v>
+        <v>62808</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1146433264474434</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09085982131367311</v>
+        <v>0.08965823831865512</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1449084877867867</v>
+        <v>0.1489943350052406</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>100</v>
@@ -1931,19 +1931,19 @@
         <v>82055</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>64477</v>
+        <v>63943</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102888</v>
+        <v>103148</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1032540009665059</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08113482600016474</v>
+        <v>0.0804630986469464</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1294692384739234</v>
+        <v>0.1297962553614563</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>34081</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23304</v>
+        <v>23389</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48919</v>
+        <v>48356</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09133426814480725</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06245383770042896</v>
+        <v>0.06268165704519203</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1310998492439483</v>
+        <v>0.1295894391922998</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>139</v>
@@ -1981,19 +1981,19 @@
         <v>86453</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>72422</v>
+        <v>72855</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>102625</v>
+        <v>102322</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2050846286973013</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1718012308753095</v>
+        <v>0.1728290835415058</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2434498574656361</v>
+        <v>0.2427293864263349</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>172</v>
@@ -2002,19 +2002,19 @@
         <v>120534</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>102269</v>
+        <v>102857</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>141608</v>
+        <v>141480</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1516734540426558</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1286901365947496</v>
+        <v>0.1294302169891693</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1781925555854888</v>
+        <v>0.1780308828052708</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>274529</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>249953</v>
+        <v>250322</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>295330</v>
+        <v>293107</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7357164117314527</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6698540336632733</v>
+        <v>0.6708430582318333</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7914620622211326</v>
+        <v>0.7855036301210065</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>299</v>
@@ -2052,19 +2052,19 @@
         <v>226169</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>207583</v>
+        <v>206612</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>246236</v>
+        <v>245811</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5365228369455474</v>
+        <v>0.5365228369455475</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4924320862968417</v>
+        <v>0.4901296508942486</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5841255332367602</v>
+        <v>0.5831187339917134</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>507</v>
@@ -2073,19 +2073,19 @@
         <v>500698</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>468069</v>
+        <v>467385</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>529156</v>
+        <v>528765</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.63005364213419</v>
+        <v>0.6300536421341899</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.588995094318286</v>
+        <v>0.5881339438878094</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6658639752016333</v>
+        <v>0.6653724473339048</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>4256</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1597</v>
+        <v>1713</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8451</v>
+        <v>8384</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.02069205254741117</v>
+        <v>0.02069205254741116</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007762765475375064</v>
+        <v>0.008327838215216144</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04109251300589448</v>
+        <v>0.04076665308704914</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -2198,19 +2198,19 @@
         <v>10859</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7176</v>
+        <v>7487</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15741</v>
+        <v>16018</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04787592368216512</v>
+        <v>0.04787592368216511</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03163564858602846</v>
+        <v>0.03300965355144318</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0693994808443209</v>
+        <v>0.07061976112189972</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>33</v>
@@ -2219,19 +2219,19 @@
         <v>15115</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10450</v>
+        <v>10564</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20941</v>
+        <v>20959</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03494894609010453</v>
+        <v>0.03494894609010452</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02416335261982373</v>
+        <v>0.02442655000810335</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04842092895254108</v>
+        <v>0.04846047859095742</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>11032</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6659</v>
+        <v>6504</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17507</v>
+        <v>16822</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05364041565555561</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03237920714013467</v>
+        <v>0.03162454911741399</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08512367871251732</v>
+        <v>0.0817912668923121</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2269,19 +2269,19 @@
         <v>15690</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10775</v>
+        <v>11215</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21186</v>
+        <v>21602</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06917370994140595</v>
+        <v>0.06917370994140594</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04750276785005202</v>
+        <v>0.04944591383697734</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09340524276856407</v>
+        <v>0.09523522109817741</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -2290,19 +2290,19 @@
         <v>26722</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20153</v>
+        <v>20093</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34782</v>
+        <v>34401</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06178703031183126</v>
+        <v>0.06178703031183127</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04659829135819522</v>
+        <v>0.04645927161473391</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08042386762381497</v>
+        <v>0.07954237874924397</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>137361</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>123428</v>
+        <v>124172</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>149323</v>
+        <v>149460</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6678863454213299</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6001407090760021</v>
+        <v>0.6037587692103382</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7260516756278922</v>
+        <v>0.7267161783497448</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>371</v>
@@ -2340,19 +2340,19 @@
         <v>161553</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>150010</v>
+        <v>150091</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>171971</v>
+        <v>171427</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7122439304261738</v>
+        <v>0.7122439304261737</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6613545920747552</v>
+        <v>0.661711618012726</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7581706121439273</v>
+        <v>0.7557723934232629</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>569</v>
@@ -2361,19 +2361,19 @@
         <v>298914</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>281263</v>
+        <v>281496</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>314910</v>
+        <v>315111</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6911501905186721</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6503366558776351</v>
+        <v>0.6508758813224366</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7281349816314554</v>
+        <v>0.7286014133420846</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>53017</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>41799</v>
+        <v>41832</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>66784</v>
+        <v>66569</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2577811863757033</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2032381416698003</v>
+        <v>0.2033975297849557</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3247245595210363</v>
+        <v>0.3236773189674003</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>58</v>
@@ -2411,19 +2411,19 @@
         <v>38720</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>30480</v>
+        <v>30194</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>51586</v>
+        <v>51207</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1707064359502552</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1343767822347381</v>
+        <v>0.1331162843602564</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2274263772752838</v>
+        <v>0.225758773647407</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>114</v>
@@ -2432,19 +2432,19 @@
         <v>91737</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>76337</v>
+        <v>75972</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>110340</v>
+        <v>108937</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.212113833079392</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1765057991741434</v>
+        <v>0.1756616654312589</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.255129539287002</v>
+        <v>0.251883574599352</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>16410</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10381</v>
+        <v>10358</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25029</v>
+        <v>24294</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06062033508804268</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03834590914147203</v>
+        <v>0.03826340794903358</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09245844014920458</v>
+        <v>0.08974205217459931</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>51</v>
@@ -2557,19 +2557,19 @@
         <v>27598</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20499</v>
+        <v>20500</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>36378</v>
+        <v>36690</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1046360427946089</v>
+        <v>0.1046360427946088</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07772045611595434</v>
+        <v>0.07772605915034975</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1379263617680891</v>
+        <v>0.1391103987652559</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>75</v>
@@ -2578,19 +2578,19 @@
         <v>44008</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35219</v>
+        <v>34057</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54481</v>
+        <v>55158</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08234172682938473</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06589711650396653</v>
+        <v>0.0637232575403521</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1019378620118869</v>
+        <v>0.103204441091619</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>21825</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15255</v>
+        <v>15791</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30502</v>
+        <v>30776</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.08062220519201653</v>
+        <v>0.08062220519201652</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05635271555461829</v>
+        <v>0.05833239367711016</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1126739515773208</v>
+        <v>0.1136868173363592</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>75</v>
@@ -2628,19 +2628,19 @@
         <v>36521</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>28995</v>
+        <v>29047</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>45811</v>
+        <v>44991</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.138467009331107</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1099335134066784</v>
+        <v>0.110129118681998</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1736912632019652</v>
+        <v>0.1705812299512453</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>109</v>
@@ -2649,19 +2649,19 @@
         <v>58346</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>47735</v>
+        <v>48805</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>69293</v>
+        <v>70656</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1091681429123125</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08931419427862472</v>
+        <v>0.09131718530457912</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.129650653649219</v>
+        <v>0.1322020024959691</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>26553</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>18879</v>
+        <v>19578</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>36162</v>
+        <v>36292</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09808721921735562</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0697382832977118</v>
+        <v>0.07232054667633409</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1335828704481241</v>
+        <v>0.1340639422733597</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>85</v>
@@ -2699,19 +2699,19 @@
         <v>38476</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>30833</v>
+        <v>31450</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>46490</v>
+        <v>47389</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.145880577160789</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1169020526337066</v>
+        <v>0.1192402400256273</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1762641368890547</v>
+        <v>0.179674883975757</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>127</v>
@@ -2720,19 +2720,19 @@
         <v>65029</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>54467</v>
+        <v>53971</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>77974</v>
+        <v>76912</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1216728504525574</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1019116367488174</v>
+        <v>0.1009823811936045</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1458938318331583</v>
+        <v>0.1439071247262128</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>205919</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>193371</v>
+        <v>192840</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>217351</v>
+        <v>217201</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7606702405025852</v>
+        <v>0.7606702405025851</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7143201969386825</v>
+        <v>0.7123577851185544</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8028998036137331</v>
+        <v>0.8023486569087745</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>249</v>
@@ -2770,19 +2770,19 @@
         <v>161156</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>148504</v>
+        <v>148491</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>173305</v>
+        <v>172423</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.6110163707134953</v>
+        <v>0.611016370713495</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5630469877498472</v>
+        <v>0.5629986810603528</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6570791419619166</v>
+        <v>0.6537380498448764</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>520</v>
@@ -2791,19 +2791,19 @@
         <v>367074</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>350259</v>
+        <v>349478</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>383562</v>
+        <v>384016</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6868172798057455</v>
+        <v>0.6868172798057454</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6553546011944619</v>
+        <v>0.6538938100807465</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.717666948932727</v>
+        <v>0.7185158487456911</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>46115</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>32025</v>
+        <v>31274</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>66869</v>
+        <v>65590</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06417324903148526</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04456514895216409</v>
+        <v>0.04352072150236367</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09305436232382099</v>
+        <v>0.09127446518474031</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>119</v>
@@ -2916,19 +2916,19 @@
         <v>100089</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>83957</v>
+        <v>82486</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>118591</v>
+        <v>118808</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1296398583644651</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1087443935493655</v>
+        <v>0.1068394158108945</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1536034671351081</v>
+        <v>0.1538851594171536</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>153</v>
@@ -2937,19 +2937,19 @@
         <v>146205</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>125637</v>
+        <v>123393</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>176727</v>
+        <v>173482</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.098080290897686</v>
+        <v>0.09808029089768604</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08428276010522252</v>
+        <v>0.08277753447927445</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1185561393702431</v>
+        <v>0.1163790474423526</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>59126</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>44318</v>
+        <v>42489</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>77278</v>
+        <v>77928</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.08227916912730766</v>
+        <v>0.08227916912730765</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06167197991288857</v>
+        <v>0.05912725971047678</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1075384933511603</v>
+        <v>0.1084431001972016</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>139</v>
@@ -2987,19 +2987,19 @@
         <v>116091</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>97646</v>
+        <v>98343</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>136502</v>
+        <v>136706</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1503659060727809</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1264752319346435</v>
+        <v>0.1273782198940447</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1768029860311498</v>
+        <v>0.1770676451827489</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>190</v>
@@ -3008,19 +3008,19 @@
         <v>175217</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>152808</v>
+        <v>151540</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>203266</v>
+        <v>203927</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1175432505218539</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1025099691914187</v>
+        <v>0.1016593947423094</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1363595799534501</v>
+        <v>0.1368026696365901</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>149161</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>125423</v>
+        <v>125808</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>173769</v>
+        <v>176277</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2075696902762858</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1745373051964878</v>
+        <v>0.1750730104690882</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2418140980218753</v>
+        <v>0.2453050868722243</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>219</v>
@@ -3058,19 +3058,19 @@
         <v>168261</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>147944</v>
+        <v>147783</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>188992</v>
+        <v>189671</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2179382202987006</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1916234777786416</v>
+        <v>0.1914144486170615</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2447897595453413</v>
+        <v>0.2456697478762575</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>349</v>
@@ -3079,19 +3079,19 @@
         <v>317421</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>286284</v>
+        <v>289123</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>348723</v>
+        <v>351733</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.212939850502132</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.192051669962555</v>
+        <v>0.1939562147759677</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2339383321210633</v>
+        <v>0.2359576228269767</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>464203</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>433694</v>
+        <v>432486</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>496685</v>
+        <v>495318</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6459778915649214</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6035220778894516</v>
+        <v>0.6018410806826586</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6911790256540105</v>
+        <v>0.6892776290650121</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>483</v>
@@ -3129,19 +3129,19 @@
         <v>387616</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>361632</v>
+        <v>361661</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>418044</v>
+        <v>412885</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5020560152640532</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4684002497793879</v>
+        <v>0.4684387780677884</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5414672215622279</v>
+        <v>0.5347852140659797</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>866</v>
@@ -3150,19 +3150,19 @@
         <v>851819</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>813572</v>
+        <v>812897</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>890193</v>
+        <v>891830</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5714366080783281</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5457787400722047</v>
+        <v>0.5453260862602121</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5971799424049191</v>
+        <v>0.5982780644636596</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>114462</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>96515</v>
+        <v>98353</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>135459</v>
+        <v>134469</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.14342375661326</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1209355543183758</v>
+        <v>0.1232384892918003</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1697322429703896</v>
+        <v>0.1684922366594724</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>251</v>
@@ -3275,19 +3275,19 @@
         <v>167312</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>149005</v>
+        <v>149629</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>187916</v>
+        <v>186379</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2014330390497331</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1793924445562888</v>
+        <v>0.1801442866525031</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2262387670848837</v>
+        <v>0.2243886329421959</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>388</v>
@@ -3296,19 +3296,19 @@
         <v>281775</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>257172</v>
+        <v>256338</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>308150</v>
+        <v>310757</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1730078355504718</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1579019564180613</v>
+        <v>0.157390230470891</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1892019470801547</v>
+        <v>0.1908030277779166</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>46556</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>35930</v>
+        <v>36653</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>59757</v>
+        <v>60602</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05833610059705682</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04502088287189093</v>
+        <v>0.04592698518850621</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07487676909861565</v>
+        <v>0.07593525639827857</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>127</v>
@@ -3346,19 +3346,19 @@
         <v>88419</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>74529</v>
+        <v>73616</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>103826</v>
+        <v>103583</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1064512395693855</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08972808966153845</v>
+        <v>0.08862848807829099</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1249993970021911</v>
+        <v>0.1247067660266121</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>184</v>
@@ -3367,19 +3367,19 @@
         <v>134976</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>117769</v>
+        <v>116793</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>158373</v>
+        <v>155676</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.08287427810323646</v>
+        <v>0.08287427810323644</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0723094884014798</v>
+        <v>0.07170997197146176</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09724008496884987</v>
+        <v>0.09558434772621074</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>100602</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>82289</v>
+        <v>83272</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>120083</v>
+        <v>121725</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1260567947299968</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1031093694926696</v>
+        <v>0.1043410851185811</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1504669883799195</v>
+        <v>0.1525242049927752</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>179</v>
@@ -3417,19 +3417,19 @@
         <v>133398</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>116739</v>
+        <v>114856</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>153371</v>
+        <v>152193</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.1606020708903504</v>
+        <v>0.1606020708903503</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.140545859607027</v>
+        <v>0.1382795201596022</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1846483092049834</v>
+        <v>0.1832311576730806</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>286</v>
@@ -3438,19 +3438,19 @@
         <v>234000</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>210872</v>
+        <v>208165</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>264041</v>
+        <v>260388</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1436744954480651</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1294737901407221</v>
+        <v>0.1278121712644508</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1621198330743261</v>
+        <v>0.1598765441436495</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>536451</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>509089</v>
+        <v>508994</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>565724</v>
+        <v>564033</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6721833480596863</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6378988657845638</v>
+        <v>0.6377800413152539</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7088633170202807</v>
+        <v>0.706744558586522</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>504</v>
@@ -3488,19 +3488,19 @@
         <v>441480</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>414299</v>
+        <v>415132</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>466234</v>
+        <v>467069</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.5315136504905309</v>
+        <v>0.531513650490531</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4987893887112272</v>
+        <v>0.4997927572123924</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5613161426238605</v>
+        <v>0.5623209410369208</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>965</v>
@@ -3509,19 +3509,19 @@
         <v>977931</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>940656</v>
+        <v>940844</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1014020</v>
+        <v>1018770</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6004433908982266</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5775566853078616</v>
+        <v>0.5776723909327411</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6226016699498843</v>
+        <v>0.6255187416269885</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>255982</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>226746</v>
+        <v>223441</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>291358</v>
+        <v>287513</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.07252203523775252</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06423906521481433</v>
+        <v>0.06330272547125798</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08254424893618746</v>
+        <v>0.08145505548808901</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>657</v>
@@ -3634,19 +3634,19 @@
         <v>446667</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>415041</v>
+        <v>412448</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>482738</v>
+        <v>483501</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.119654093993352</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1111822278390828</v>
+        <v>0.1104875491640292</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1293171152093155</v>
+        <v>0.1295212900826685</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>929</v>
@@ -3655,19 +3655,19 @@
         <v>702649</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>657608</v>
+        <v>654821</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>758905</v>
+        <v>749614</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.0967476288677193</v>
+        <v>0.09674762886771929</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.09054593654171167</v>
+        <v>0.09016220109072302</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1044935097274187</v>
+        <v>0.1032142623582063</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>231868</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>201713</v>
+        <v>201716</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>264782</v>
+        <v>260307</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0656902528728973</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.05714705196429459</v>
+        <v>0.05714793122609677</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.07501505758954474</v>
+        <v>0.07374723031091178</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>591</v>
@@ -3705,19 +3705,19 @@
         <v>394021</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>361248</v>
+        <v>362933</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>427644</v>
+        <v>426544</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1055513417658093</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.09677203230532976</v>
+        <v>0.0972232850010879</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1145583297648569</v>
+        <v>0.1142636251310134</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>838</v>
@@ -3726,19 +3726,19 @@
         <v>625889</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>581315</v>
+        <v>580511</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>669044</v>
+        <v>669231</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.08617861189355952</v>
+        <v>0.08617861189355951</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.08004124426619974</v>
+        <v>0.07993051823163387</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.09212065151286576</v>
+        <v>0.09214631755523407</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>589148</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>537780</v>
+        <v>544892</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>631361</v>
+        <v>633764</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.166911110831395</v>
+        <v>0.1669111108313949</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1523579062841781</v>
+        <v>0.1543729853379417</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1788703743090588</v>
+        <v>0.1795510597337991</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1311</v>
@@ -3776,19 +3776,19 @@
         <v>791085</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>747898</v>
+        <v>751817</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>828354</v>
+        <v>833953</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.211917632827575</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2003487985805341</v>
+        <v>0.201398544166591</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2219015150072006</v>
+        <v>0.223401222700803</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1954</v>
@@ -3797,19 +3797,19 @@
         <v>1380233</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1322395</v>
+        <v>1322264</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1446385</v>
+        <v>1439179</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1900441914004267</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1820805063835576</v>
+        <v>0.1820624822846395</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.199152592522567</v>
+        <v>0.1981603715226847</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>2452716</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2392502</v>
+        <v>2394317</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2515922</v>
+        <v>2510843</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.6948766010579553</v>
+        <v>0.6948766010579551</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.6778174125107543</v>
+        <v>0.6783317648890601</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.712783542862043</v>
+        <v>0.711344507036845</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2801</v>
@@ -3847,19 +3847,19 @@
         <v>2101209</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2043237</v>
+        <v>2045365</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2153305</v>
+        <v>2155787</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.5628769314132636</v>
+        <v>0.5628769314132637</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5473470817192119</v>
+        <v>0.5479171011873112</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5768324561578185</v>
+        <v>0.5774973371230016</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5012</v>
@@ -3868,19 +3868,19 @@
         <v>4553925</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4470127</v>
+        <v>4481157</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4626811</v>
+        <v>4630278</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.6270295678382946</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.6154913631214378</v>
+        <v>0.617010126521655</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.6370652041305462</v>
+        <v>0.6375425540811303</v>
       </c>
     </row>
     <row r="48">
